--- a/GameData/技能分配简表/战技/战技：不同武器熟练度对应默认技能列表.xlsx
+++ b/GameData/技能分配简表/战技/战技：不同武器熟练度对应默认技能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\战技\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\C-SkillSys-Demo\GameData\技能分配简表\战技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8609E62-9405-42DA-847D-7BCCD30B0FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BE8BC-1BA7-438B-9552-0F69862926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3650" windowWidth="16200" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>E技能0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,9 +155,6 @@
     <t>狙击</t>
   </si>
   <si>
-    <t>弱化射击</t>
-  </si>
-  <si>
     <t>合围之箭</t>
   </si>
   <si>
@@ -168,6 +165,26 @@
   </si>
   <si>
     <t>封魔矢+</t>
+  </si>
+  <si>
+    <t>破坏射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -635,16 +652,30 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
-        <v>40</v>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
